--- a/.private/docs/Approved Title/Appendices/Gantt Chart of Activities.xlsx
+++ b/.private/docs/Approved Title/Appendices/Gantt Chart of Activities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NILA\Documents\BSIT-Capstone\.private\docs\Approved Title\Appendices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B200483-083F-4B49-A89D-1B068B43B706}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC77E8AB-506F-48EF-81AC-DA1F071FAC9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{70F62432-DD47-4F56-B7B9-E1B12A568183}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{70F62432-DD47-4F56-B7B9-E1B12A568183}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,24 +187,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -212,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -228,28 +228,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,7 +575,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -582,36 +588,36 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7" t="s">
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
     </row>
     <row r="2" spans="1:21" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -680,11 +686,11 @@
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -705,15 +711,15 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="8"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="14"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -734,12 +740,12 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -762,8 +768,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -780,16 +786,16 @@
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
